--- a/InputFiles/CCDI/TC04_CCDI_phs002371_Sex-NotReported_Filetype-bam_stdstatus-completd.xlsx
+++ b/InputFiles/CCDI/TC04_CCDI_phs002371_Sex-NotReported_Filetype-bam_stdstatus-completd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\04-29-25\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatekaraa\Automation\05-01-25\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44AB659-08A6-4EE9-8CB5-E782C49C7B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC585A3D-99B7-457B-A76D-3EAF7867C852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -237,43 +237,6 @@
   </si>
   <si>
     <t>TC04_CCDI_phs002371_Sex-NotReported_Filetype-bam_stdstatus-completd_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>WITH filtered_participants AS (
-    SELECT DISTINCT prt.id, prt.participant_id
-    FROM df_study std
-    JOIN df_participant prt ON std.id = prt."study.id"
-    JOIN df_diagnosis dgn ON prt.id = dgn."participant.id"
-    WHERE 
-        std.dbgap_accession = 'phs002371'
-        AND prt.sex_at_birth = 'Not Reported'
-        AND std.study_status = 'Completed'
-),
--- Step 2: Get samples from those participants
-filtered_samples AS (
-    SELECT DISTINCT smp.id, smp.sample_id, smp.anatomic_site, smp."participant.id"
-    FROM df_sample smp
-    JOIN filtered_participants prt ON smp."participant.id" = prt.id
-),
--- Step 3: Keep only samples that have at least one FASTQ file
-samples_with_fastq AS (
-    SELECT DISTINCT smp.*
-    FROM filtered_samples smp
-    JOIN df_sequencing_file seq ON seq."sample.id" = smp.id
-    WHERE seq.file_type = 'bam'
-)
--- Final output
-SELECT 
-    smp.sample_id AS "Sample ID",
-    prt.participant_id AS "Participant ID",
-    'phs002371' AS "Study ID",
-    smp.anatomic_site AS "Sample Anatomic Site",
-    NULL AS "Sample Diagnosis"
-FROM 
-    samples_with_fastq smp
-JOIN filtered_participants prt ON smp."participant.id" = prt.id
-ORDER BY 
-    smp.sample_id ASC;</t>
   </si>
   <si>
     <t xml:space="preserve">with file_data as (
@@ -327,6 +290,46 @@
 ORDER BY  fd.file_name
 limit 100;
 </t>
+  </si>
+  <si>
+    <t>WITH filtered_participants AS (
+    SELECT DISTINCT prt.id, prt.participant_id
+    FROM df_study std
+    JOIN df_participant prt ON std.id = prt."study.id"
+    JOIN df_diagnosis dgn ON prt.id = dgn."participant.id"
+    WHERE 
+        std.dbgap_accession = 'phs002371'
+        AND prt.sex_at_birth = 'Not Reported'
+        AND std.study_status = 'Completed'
+),
+-- Step 2: Get samples from those participants
+filtered_samples AS (
+    SELECT DISTINCT smp.id, smp.sample_id, smp.anatomic_site, smp."participant.id", smp.participant_age_at_collection, smp.sample_tumor_status,smp.tumor_classification
+    FROM df_sample smp
+    JOIN filtered_participants prt ON smp."participant.id" = prt.id
+),
+-- Step 3: Keep only samples that have at least one FASTQ file
+samples_with_fastq AS (
+    SELECT DISTINCT smp.*
+    FROM filtered_samples smp
+    JOIN df_sequencing_file seq ON seq."sample.id" = smp.id
+    WHERE seq.file_type = 'bam'
+)
+-- Final output
+SELECT 
+    smp.sample_id AS "Sample ID",
+    prt.participant_id AS "Participant ID",
+    'phs002371' AS "Study ID",
+    smp.anatomic_site AS "Sample Anatomic Site",
+	COALESCE(CASE WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' ELSE smp.participant_age_at_collection END, 0) AS "Age at Sample Collection (days)",
+    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
+    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
+    NULL AS "Sample Diagnosis"
+FROM 
+    samples_with_fastq smp
+JOIN filtered_participants prt ON smp."participant.id" = prt.id
+ORDER BY 
+    smp.sample_id ASC;</t>
   </si>
 </sst>
 </file>
@@ -728,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -797,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
     </row>
